--- a/medicine/Psychotrope/Kingfisher_(bière)/Kingfisher_(bière).xlsx
+++ b/medicine/Psychotrope/Kingfisher_(bière)/Kingfisher_(bière).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Kingfisher_(bi%C3%A8re)</t>
+          <t>Kingfisher_(bière)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Kingfisher est une marque de bière brassée par United Breweries Group en Inde, et sous licence en Angleterre et aux États-Unis. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Kingfisher_(bi%C3%A8re)</t>
+          <t>Kingfisher_(bière)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Marché</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Elle représente à elle seule 1/3 du marché intérieur indien et est distribuée dans plus de 52 pays.
 À l'initiative de Vijay Mallya, elle est devenue aussi une marque de compagnie aérienne à la suite du lancement de Kingfisher Airlines.
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Kingfisher_(bi%C3%A8re)</t>
+          <t>Kingfisher_(bière)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,7 +558,9 @@
           <t>Variétés</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Kingfisher Premium
 Kingfisher Strong
